--- a/pred_ohlcv/54/2019-10-19 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 LTC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H280"/>
+  <dimension ref="A1:I260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="C2" t="n">
         <v>63000</v>
@@ -417,15 +422,18 @@
         <v>63000</v>
       </c>
       <c r="E2" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="F2" t="n">
-        <v>25.2107</v>
+        <v>3.7674</v>
       </c>
       <c r="G2" t="n">
-        <v>63030.83333333334</v>
+        <v>63029.16666666666</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="C3" t="n">
         <v>63000</v>
@@ -443,15 +451,18 @@
         <v>63000</v>
       </c>
       <c r="E3" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="F3" t="n">
-        <v>11.0101</v>
+        <v>25.2107</v>
       </c>
       <c r="G3" t="n">
         <v>63030.83333333334</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>63000</v>
       </c>
       <c r="F4" t="n">
-        <v>36.2572</v>
+        <v>11.0101</v>
       </c>
       <c r="G4" t="n">
         <v>63030.83333333334</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -489,21 +503,24 @@
         <v>63000</v>
       </c>
       <c r="C5" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="D5" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="E5" t="n">
         <v>63000</v>
       </c>
       <c r="F5" t="n">
-        <v>55.7</v>
+        <v>36.2572</v>
       </c>
       <c r="G5" t="n">
-        <v>63031.66666666666</v>
+        <v>63030.83333333334</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -515,21 +532,24 @@
         <v>63000</v>
       </c>
       <c r="C6" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="D6" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="E6" t="n">
         <v>63000</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3179</v>
+        <v>55.7</v>
       </c>
       <c r="G6" t="n">
         <v>63031.66666666666</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="C7" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="D7" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="E7" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1019</v>
+        <v>0.3179</v>
       </c>
       <c r="G7" t="n">
-        <v>63034.16666666666</v>
+        <v>63031.66666666666</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>62950</v>
       </c>
       <c r="F8" t="n">
-        <v>7.3310405</v>
+        <v>0.1019</v>
       </c>
       <c r="G8" t="n">
-        <v>63035</v>
+        <v>63034.16666666666</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>63050</v>
+        <v>62950</v>
       </c>
       <c r="C9" t="n">
-        <v>63050</v>
+        <v>62950</v>
       </c>
       <c r="D9" t="n">
-        <v>63050</v>
+        <v>62950</v>
       </c>
       <c r="E9" t="n">
-        <v>63050</v>
+        <v>62950</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>7.3310405</v>
       </c>
       <c r="G9" t="n">
-        <v>63039.16666666666</v>
+        <v>63035</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>63050</v>
       </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>63045</v>
+        <v>63039.16666666666</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="C11" t="n">
         <v>63050</v>
       </c>
       <c r="D11" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="E11" t="n">
         <v>63050</v>
       </c>
       <c r="F11" t="n">
-        <v>11.1674</v>
+        <v>3.5</v>
       </c>
       <c r="G11" t="n">
-        <v>63051.66666666666</v>
+        <v>63045</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="C12" t="n">
         <v>63050</v>
       </c>
       <c r="D12" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="E12" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="F12" t="n">
-        <v>4.479</v>
+        <v>11.1674</v>
       </c>
       <c r="G12" t="n">
-        <v>63058.33333333334</v>
+        <v>63051.66666666666</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="C13" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="D13" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="E13" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="F13" t="n">
-        <v>4.4347</v>
+        <v>4.479</v>
       </c>
       <c r="G13" t="n">
-        <v>63066.66666666666</v>
+        <v>63058.33333333334</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>63100</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2136</v>
+        <v>4.4347</v>
       </c>
       <c r="G14" t="n">
-        <v>63073.33333333334</v>
+        <v>63066.66666666666</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>63100</v>
       </c>
       <c r="F15" t="n">
-        <v>22.8001</v>
+        <v>0.2136</v>
       </c>
       <c r="G15" t="n">
-        <v>63080.83333333334</v>
+        <v>63073.33333333334</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>63100</v>
       </c>
       <c r="F16" t="n">
-        <v>10.66</v>
+        <v>22.8001</v>
       </c>
       <c r="G16" t="n">
-        <v>63085.83333333334</v>
+        <v>63080.83333333334</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>63100</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0419</v>
+        <v>10.66</v>
       </c>
       <c r="G17" t="n">
-        <v>63090.83333333334</v>
+        <v>63085.83333333334</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="C18" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="D18" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="E18" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>1.0419</v>
       </c>
       <c r="G18" t="n">
-        <v>63096.66666666666</v>
+        <v>63090.83333333334</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="C19" t="n">
-        <v>63400</v>
+        <v>63200</v>
       </c>
       <c r="D19" t="n">
-        <v>63400</v>
+        <v>63200</v>
       </c>
       <c r="E19" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="F19" t="n">
-        <v>23.0901</v>
+        <v>30</v>
       </c>
       <c r="G19" t="n">
-        <v>63106.66666666666</v>
+        <v>63096.66666666666</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="C20" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="D20" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="E20" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="F20" t="n">
-        <v>3.8</v>
+        <v>23.0901</v>
       </c>
       <c r="G20" t="n">
-        <v>63114.16666666666</v>
+        <v>63106.66666666666</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>63300</v>
       </c>
       <c r="F21" t="n">
-        <v>18.5484</v>
+        <v>3.8</v>
       </c>
       <c r="G21" t="n">
-        <v>63120.83333333334</v>
+        <v>63114.16666666666</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="C22" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="D22" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="E22" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="F22" t="n">
-        <v>12.2758</v>
+        <v>18.5484</v>
       </c>
       <c r="G22" t="n">
-        <v>63124.16666666666</v>
+        <v>63120.83333333334</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>63200</v>
       </c>
       <c r="F23" t="n">
-        <v>28.6544</v>
+        <v>12.2758</v>
       </c>
       <c r="G23" t="n">
-        <v>63125.83333333334</v>
+        <v>63124.16666666666</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="C24" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="D24" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="E24" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2493</v>
+        <v>28.6544</v>
       </c>
       <c r="G24" t="n">
         <v>63125.83333333334</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="C25" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="D25" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="E25" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="F25" t="n">
-        <v>1.8801</v>
+        <v>0.2493</v>
       </c>
       <c r="G25" t="n">
-        <v>63127.5</v>
+        <v>63125.83333333334</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="C26" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="D26" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="E26" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="F26" t="n">
-        <v>58.4</v>
+        <v>1.8801</v>
       </c>
       <c r="G26" t="n">
-        <v>63129.16666666666</v>
+        <v>63127.5</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>63250</v>
+        <v>63300</v>
       </c>
       <c r="C27" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="D27" t="n">
-        <v>63250</v>
+        <v>63300</v>
       </c>
       <c r="E27" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="F27" t="n">
-        <v>12.0002</v>
+        <v>58.4</v>
       </c>
       <c r="G27" t="n">
         <v>63129.16666666666</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>63150</v>
+        <v>63250</v>
       </c>
       <c r="C28" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="D28" t="n">
-        <v>63150</v>
+        <v>63250</v>
       </c>
       <c r="E28" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="F28" t="n">
-        <v>10.1865</v>
+        <v>12.0002</v>
       </c>
       <c r="G28" t="n">
-        <v>63131.66666666666</v>
+        <v>63129.16666666666</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>63150</v>
       </c>
       <c r="F29" t="n">
-        <v>86.8412</v>
+        <v>10.1865</v>
       </c>
       <c r="G29" t="n">
-        <v>63134.16666666666</v>
+        <v>63131.66666666666</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="C30" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="D30" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="E30" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="F30" t="n">
-        <v>3.2099</v>
+        <v>86.8412</v>
       </c>
       <c r="G30" t="n">
-        <v>63135</v>
+        <v>63134.16666666666</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>63100</v>
       </c>
       <c r="F31" t="n">
-        <v>45.5559</v>
+        <v>3.2099</v>
       </c>
       <c r="G31" t="n">
-        <v>63133.33333333334</v>
+        <v>63135</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>63100</v>
       </c>
       <c r="F32" t="n">
-        <v>44.6154</v>
+        <v>45.5559</v>
       </c>
       <c r="G32" t="n">
-        <v>63131.66666666666</v>
+        <v>63133.33333333334</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>63100</v>
       </c>
       <c r="F33" t="n">
-        <v>5.3481</v>
+        <v>44.6154</v>
       </c>
       <c r="G33" t="n">
-        <v>63126.66666666666</v>
+        <v>63131.66666666666</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>63100</v>
       </c>
       <c r="F34" t="n">
-        <v>6.0001</v>
+        <v>5.3481</v>
       </c>
       <c r="G34" t="n">
-        <v>63118.33333333334</v>
+        <v>63126.66666666666</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="C35" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="D35" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="E35" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="F35" t="n">
-        <v>16.6906</v>
+        <v>6.0001</v>
       </c>
       <c r="G35" t="n">
-        <v>63114.16666666666</v>
+        <v>63118.33333333334</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1295,21 +1402,24 @@
         <v>63150</v>
       </c>
       <c r="C36" t="n">
-        <v>63150</v>
+        <v>63050</v>
       </c>
       <c r="D36" t="n">
         <v>63150</v>
       </c>
       <c r="E36" t="n">
-        <v>63150</v>
+        <v>63050</v>
       </c>
       <c r="F36" t="n">
-        <v>1.0031</v>
+        <v>16.6906</v>
       </c>
       <c r="G36" t="n">
-        <v>63113.33333333334</v>
+        <v>63114.16666666666</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="C37" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="D37" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="E37" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="F37" t="n">
-        <v>2.9077</v>
+        <v>1.0031</v>
       </c>
       <c r="G37" t="n">
-        <v>63110</v>
+        <v>63113.33333333334</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>63000</v>
       </c>
       <c r="F38" t="n">
-        <v>6.3214</v>
+        <v>2.9077</v>
       </c>
       <c r="G38" t="n">
-        <v>63108.33333333334</v>
+        <v>63110</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>63200</v>
+        <v>63000</v>
       </c>
       <c r="C39" t="n">
-        <v>63200</v>
+        <v>63000</v>
       </c>
       <c r="D39" t="n">
-        <v>63200</v>
+        <v>63000</v>
       </c>
       <c r="E39" t="n">
-        <v>63200</v>
+        <v>63000</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>6.3214</v>
       </c>
       <c r="G39" t="n">
-        <v>63110.83333333334</v>
+        <v>63108.33333333334</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>63200</v>
       </c>
       <c r="F40" t="n">
-        <v>16.3507</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>63110.83333333334</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>63200</v>
       </c>
       <c r="F41" t="n">
-        <v>82.6493</v>
+        <v>16.3507</v>
       </c>
       <c r="G41" t="n">
         <v>63110.83333333334</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="C42" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="D42" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="E42" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4762</v>
+        <v>82.6493</v>
       </c>
       <c r="G42" t="n">
-        <v>63111.66666666666</v>
+        <v>63110.83333333334</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>63250</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6548</v>
+        <v>0.4762</v>
       </c>
       <c r="G43" t="n">
-        <v>63112.5</v>
+        <v>63111.66666666666</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>63350</v>
+        <v>63250</v>
       </c>
       <c r="C44" t="n">
         <v>63250</v>
       </c>
       <c r="D44" t="n">
-        <v>63350</v>
+        <v>63250</v>
       </c>
       <c r="E44" t="n">
         <v>63250</v>
       </c>
       <c r="F44" t="n">
-        <v>64.1982</v>
+        <v>0.6548</v>
       </c>
       <c r="G44" t="n">
-        <v>63115</v>
+        <v>63112.5</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,21 +1663,24 @@
         <v>63350</v>
       </c>
       <c r="C45" t="n">
-        <v>63300</v>
+        <v>63250</v>
       </c>
       <c r="D45" t="n">
         <v>63350</v>
       </c>
       <c r="E45" t="n">
-        <v>63300</v>
+        <v>63250</v>
       </c>
       <c r="F45" t="n">
-        <v>2.089</v>
+        <v>64.1982</v>
       </c>
       <c r="G45" t="n">
-        <v>63118.33333333334</v>
+        <v>63115</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1555,21 +1692,24 @@
         <v>63350</v>
       </c>
       <c r="C46" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="D46" t="n">
         <v>63350</v>
       </c>
       <c r="E46" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="F46" t="n">
-        <v>4.3282</v>
+        <v>2.089</v>
       </c>
       <c r="G46" t="n">
-        <v>63122.5</v>
+        <v>63118.33333333334</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>63350</v>
       </c>
       <c r="F47" t="n">
-        <v>13.3059</v>
+        <v>4.3282</v>
       </c>
       <c r="G47" t="n">
-        <v>63125</v>
+        <v>63122.5</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="C48" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="D48" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="E48" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="F48" t="n">
-        <v>5.1155</v>
+        <v>13.3059</v>
       </c>
       <c r="G48" t="n">
-        <v>63123.33333333334</v>
+        <v>63125</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>63200</v>
       </c>
       <c r="F49" t="n">
-        <v>4.8863</v>
+        <v>5.1155</v>
       </c>
       <c r="G49" t="n">
-        <v>63121.66666666666</v>
+        <v>63123.33333333334</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,7 +1805,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="C50" t="n">
         <v>63200</v>
@@ -1665,16 +1814,19 @@
         <v>63200</v>
       </c>
       <c r="E50" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="F50" t="n">
-        <v>21.9873</v>
+        <v>4.8863</v>
       </c>
       <c r="G50" t="n">
-        <v>63120.83333333334</v>
+        <v>63121.66666666666</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1682,25 +1834,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>63300</v>
+        <v>63150</v>
       </c>
       <c r="C51" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="D51" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="E51" t="n">
-        <v>63300</v>
+        <v>63150</v>
       </c>
       <c r="F51" t="n">
-        <v>11.1585</v>
+        <v>21.9873</v>
       </c>
       <c r="G51" t="n">
-        <v>63122.5</v>
+        <v>63120.83333333334</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1708,25 +1863,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="C52" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="D52" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="E52" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="F52" t="n">
-        <v>1.2458</v>
+        <v>11.1585</v>
       </c>
       <c r="G52" t="n">
         <v>63122.5</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1746,13 +1904,16 @@
         <v>63200</v>
       </c>
       <c r="F53" t="n">
-        <v>3.3463</v>
+        <v>1.2458</v>
       </c>
       <c r="G53" t="n">
-        <v>63123.33333333334</v>
+        <v>63122.5</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1772,13 +1933,16 @@
         <v>63200</v>
       </c>
       <c r="F54" t="n">
-        <v>3.627</v>
+        <v>3.3463</v>
       </c>
       <c r="G54" t="n">
-        <v>63125</v>
+        <v>63123.33333333334</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1789,22 +1953,25 @@
         <v>63200</v>
       </c>
       <c r="C55" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="D55" t="n">
         <v>63200</v>
       </c>
       <c r="E55" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="F55" t="n">
-        <v>15.3393</v>
+        <v>3.627</v>
       </c>
       <c r="G55" t="n">
-        <v>63126.66666666666</v>
+        <v>63125</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1815,22 +1982,25 @@
         <v>63200</v>
       </c>
       <c r="C56" t="n">
-        <v>63300</v>
+        <v>63100</v>
       </c>
       <c r="D56" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="E56" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="F56" t="n">
-        <v>56.0358</v>
+        <v>15.3393</v>
       </c>
       <c r="G56" t="n">
-        <v>63134.16666666666</v>
+        <v>63126.66666666666</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1841,22 +2011,25 @@
         <v>63200</v>
       </c>
       <c r="C57" t="n">
-        <v>63100</v>
+        <v>63300</v>
       </c>
       <c r="D57" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="E57" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="F57" t="n">
-        <v>36.6872</v>
+        <v>56.0358</v>
       </c>
       <c r="G57" t="n">
-        <v>63139.16666666666</v>
+        <v>63134.16666666666</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1864,25 +2037,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="C58" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="D58" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="E58" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="F58" t="n">
-        <v>5.5129</v>
+        <v>36.6872</v>
       </c>
       <c r="G58" t="n">
-        <v>63142.5</v>
+        <v>63139.16666666666</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1890,25 +2066,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="C59" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="D59" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="E59" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5436</v>
+        <v>5.5129</v>
       </c>
       <c r="G59" t="n">
-        <v>63144.16666666666</v>
+        <v>63142.5</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1916,25 +2095,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="C60" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="D60" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="E60" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="F60" t="n">
-        <v>37.3312</v>
+        <v>0.5436</v>
       </c>
       <c r="G60" t="n">
         <v>63144.16666666666</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1942,25 +2124,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="C61" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="D61" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="E61" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5924</v>
+        <v>37.3312</v>
       </c>
       <c r="G61" t="n">
-        <v>63145.83333333334</v>
+        <v>63144.16666666666</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1968,25 +2153,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="C62" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="D62" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="E62" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="F62" t="n">
-        <v>7.8393</v>
+        <v>0.5924</v>
       </c>
       <c r="G62" t="n">
-        <v>63146.66666666666</v>
+        <v>63145.83333333334</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2003,16 +2191,19 @@
         <v>63050</v>
       </c>
       <c r="E63" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="F63" t="n">
-        <v>69.5305</v>
+        <v>7.8393</v>
       </c>
       <c r="G63" t="n">
-        <v>63147.5</v>
+        <v>63146.66666666666</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2029,16 +2220,19 @@
         <v>63050</v>
       </c>
       <c r="E64" t="n">
-        <v>63050</v>
+        <v>62900</v>
       </c>
       <c r="F64" t="n">
-        <v>1.0989</v>
+        <v>69.5305</v>
       </c>
       <c r="G64" t="n">
-        <v>63148.33333333334</v>
+        <v>63147.5</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2046,25 +2240,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="C65" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="D65" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="E65" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="F65" t="n">
-        <v>11.6555</v>
+        <v>1.0989</v>
       </c>
       <c r="G65" t="n">
-        <v>63145.83333333334</v>
+        <v>63148.33333333334</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2072,25 +2269,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="C66" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="D66" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="E66" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5575</v>
+        <v>11.6555</v>
       </c>
       <c r="G66" t="n">
-        <v>63145</v>
+        <v>63145.83333333334</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2098,25 +2298,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>63100</v>
+        <v>62950</v>
       </c>
       <c r="C67" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="D67" t="n">
-        <v>63100</v>
+        <v>62950</v>
       </c>
       <c r="E67" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="F67" t="n">
-        <v>6.4</v>
+        <v>0.5575</v>
       </c>
       <c r="G67" t="n">
-        <v>63145.83333333334</v>
+        <v>63145</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2124,25 +2327,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="C68" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="D68" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="E68" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="F68" t="n">
-        <v>2.5491</v>
+        <v>6.4</v>
       </c>
       <c r="G68" t="n">
         <v>63145.83333333334</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="C69" t="n">
         <v>62950</v>
       </c>
       <c r="D69" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="E69" t="n">
         <v>62950</v>
       </c>
       <c r="F69" t="n">
-        <v>26.1049</v>
+        <v>2.5491</v>
       </c>
       <c r="G69" t="n">
-        <v>63144.16666666666</v>
+        <v>63145.83333333334</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2179,21 +2388,24 @@
         <v>62950</v>
       </c>
       <c r="C70" t="n">
-        <v>62900</v>
+        <v>62950</v>
       </c>
       <c r="D70" t="n">
         <v>62950</v>
       </c>
       <c r="E70" t="n">
-        <v>62900</v>
+        <v>62950</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6883</v>
+        <v>26.1049</v>
       </c>
       <c r="G70" t="n">
-        <v>63141.66666666666</v>
+        <v>63144.16666666666</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>62900</v>
+        <v>62950</v>
       </c>
       <c r="C71" t="n">
         <v>62900</v>
       </c>
       <c r="D71" t="n">
-        <v>62900</v>
+        <v>62950</v>
       </c>
       <c r="E71" t="n">
         <v>62900</v>
       </c>
       <c r="F71" t="n">
-        <v>37.5913</v>
+        <v>0.6883</v>
       </c>
       <c r="G71" t="n">
-        <v>63139.16666666666</v>
+        <v>63141.66666666666</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>62900</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>37.5913</v>
       </c>
       <c r="G72" t="n">
-        <v>63136.66666666666</v>
+        <v>63139.16666666666</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>62900</v>
       </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>63133.33333333334</v>
+        <v>63136.66666666666</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>62900</v>
       </c>
       <c r="F74" t="n">
-        <v>15.5556</v>
+        <v>5</v>
       </c>
       <c r="G74" t="n">
-        <v>63130</v>
+        <v>63133.33333333334</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>62900</v>
       </c>
       <c r="F75" t="n">
-        <v>4.014</v>
+        <v>15.5556</v>
       </c>
       <c r="G75" t="n">
-        <v>63126.66666666666</v>
+        <v>63130</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>62900</v>
       </c>
       <c r="F76" t="n">
-        <v>66.8391</v>
+        <v>4.014</v>
       </c>
       <c r="G76" t="n">
-        <v>63123.33333333334</v>
+        <v>63126.66666666666</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="C77" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="D77" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="E77" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1</v>
+        <v>66.8391</v>
       </c>
       <c r="G77" t="n">
-        <v>63121.66666666666</v>
+        <v>63123.33333333334</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="C78" t="n">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="D78" t="n">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="E78" t="n">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="F78" t="n">
-        <v>7.9144</v>
+        <v>0.1</v>
       </c>
       <c r="G78" t="n">
-        <v>63116.66666666666</v>
+        <v>63121.66666666666</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>62900</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1044</v>
+        <v>7.9144</v>
       </c>
       <c r="G79" t="n">
-        <v>63108.33333333334</v>
+        <v>63116.66666666666</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>62900</v>
       </c>
       <c r="F80" t="n">
-        <v>23.803</v>
+        <v>0.1044</v>
       </c>
       <c r="G80" t="n">
-        <v>63101.66666666666</v>
+        <v>63108.33333333334</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="C81" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="D81" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="E81" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="F81" t="n">
-        <v>0.355</v>
+        <v>23.803</v>
       </c>
       <c r="G81" t="n">
-        <v>63095.83333333334</v>
+        <v>63101.66666666666</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>63050</v>
+        <v>62950</v>
       </c>
       <c r="C82" t="n">
-        <v>63050</v>
+        <v>62950</v>
       </c>
       <c r="D82" t="n">
-        <v>63050</v>
+        <v>62950</v>
       </c>
       <c r="E82" t="n">
-        <v>63050</v>
+        <v>62950</v>
       </c>
       <c r="F82" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G82" t="n">
+        <v>63095.83333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>1</v>
       </c>
-      <c r="G82" t="n">
-        <v>63093.33333333334</v>
-      </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="C83" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="D83" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="E83" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="F83" t="n">
-        <v>2.7512</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>63089.16666666666</v>
+        <v>63093.33333333334</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>62950</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3205</v>
+        <v>2.7512</v>
       </c>
       <c r="G84" t="n">
-        <v>63086.66666666666</v>
+        <v>63089.16666666666</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>62950</v>
       </c>
       <c r="F85" t="n">
-        <v>9.9999</v>
+        <v>0.3205</v>
       </c>
       <c r="G85" t="n">
-        <v>63082.5</v>
+        <v>63086.66666666666</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="C86" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="D86" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="E86" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="F86" t="n">
-        <v>100</v>
+        <v>9.9999</v>
       </c>
       <c r="G86" t="n">
-        <v>63077.5</v>
+        <v>63082.5</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2621,21 +2881,24 @@
         <v>63000</v>
       </c>
       <c r="C87" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="D87" t="n">
         <v>63000</v>
       </c>
       <c r="E87" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="F87" t="n">
-        <v>5.3778</v>
+        <v>100</v>
       </c>
       <c r="G87" t="n">
-        <v>63073.33333333334</v>
+        <v>63077.5</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="C88" t="n">
         <v>62950</v>
       </c>
       <c r="D88" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="E88" t="n">
         <v>62950</v>
       </c>
       <c r="F88" t="n">
-        <v>2.06</v>
+        <v>5.3778</v>
       </c>
       <c r="G88" t="n">
-        <v>63070</v>
+        <v>63073.33333333334</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>62950</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5124</v>
+        <v>2.06</v>
       </c>
       <c r="G89" t="n">
-        <v>63066.66666666666</v>
+        <v>63070</v>
       </c>
       <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>62950</v>
       </c>
       <c r="F90" t="n">
-        <v>4.356</v>
+        <v>0.5124</v>
       </c>
       <c r="G90" t="n">
-        <v>63064.16666666666</v>
+        <v>63066.66666666666</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>62900</v>
+        <v>62950</v>
       </c>
       <c r="C91" t="n">
-        <v>62800</v>
+        <v>62950</v>
       </c>
       <c r="D91" t="n">
-        <v>62900</v>
+        <v>62950</v>
       </c>
       <c r="E91" t="n">
-        <v>62750</v>
+        <v>62950</v>
       </c>
       <c r="F91" t="n">
-        <v>52.1669</v>
+        <v>4.356</v>
       </c>
       <c r="G91" t="n">
-        <v>63059.16666666666</v>
+        <v>63064.16666666666</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="C92" t="n">
         <v>62800</v>
       </c>
       <c r="D92" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="E92" t="n">
-        <v>62800</v>
+        <v>62750</v>
       </c>
       <c r="F92" t="n">
-        <v>2.4249</v>
+        <v>52.1669</v>
       </c>
       <c r="G92" t="n">
-        <v>63054.16666666666</v>
+        <v>63059.16666666666</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>62800</v>
       </c>
       <c r="F93" t="n">
-        <v>13.1572</v>
+        <v>2.4249</v>
       </c>
       <c r="G93" t="n">
-        <v>63049.16666666666</v>
+        <v>63054.16666666666</v>
       </c>
       <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="C94" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="D94" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="E94" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="F94" t="n">
-        <v>1.4981</v>
+        <v>13.1572</v>
       </c>
       <c r="G94" t="n">
-        <v>63042.5</v>
+        <v>63049.16666666666</v>
       </c>
       <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>62700</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4766</v>
+        <v>1.4981</v>
       </c>
       <c r="G95" t="n">
-        <v>63036.66666666666</v>
+        <v>63042.5</v>
       </c>
       <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>62850</v>
+        <v>62700</v>
       </c>
       <c r="C96" t="n">
-        <v>62850</v>
+        <v>62700</v>
       </c>
       <c r="D96" t="n">
-        <v>62850</v>
+        <v>62700</v>
       </c>
       <c r="E96" t="n">
-        <v>62850</v>
+        <v>62700</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1</v>
+        <v>0.4766</v>
       </c>
       <c r="G96" t="n">
-        <v>63031.66666666666</v>
+        <v>63036.66666666666</v>
       </c>
       <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>62800</v>
+        <v>62850</v>
       </c>
       <c r="C97" t="n">
-        <v>62800</v>
+        <v>62850</v>
       </c>
       <c r="D97" t="n">
-        <v>62800</v>
+        <v>62850</v>
       </c>
       <c r="E97" t="n">
-        <v>62800</v>
+        <v>62850</v>
       </c>
       <c r="F97" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="G97" t="n">
-        <v>63028.33333333334</v>
+        <v>63031.66666666666</v>
       </c>
       <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="C98" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="D98" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="E98" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4734</v>
+        <v>1.6</v>
       </c>
       <c r="G98" t="n">
-        <v>63023.33333333334</v>
+        <v>63028.33333333334</v>
       </c>
       <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>62750</v>
+        <v>62700</v>
       </c>
       <c r="C99" t="n">
-        <v>62750</v>
+        <v>62700</v>
       </c>
       <c r="D99" t="n">
-        <v>62750</v>
+        <v>62700</v>
       </c>
       <c r="E99" t="n">
-        <v>62750</v>
+        <v>62700</v>
       </c>
       <c r="F99" t="n">
+        <v>0.4734</v>
+      </c>
+      <c r="G99" t="n">
+        <v>63023.33333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>1</v>
       </c>
-      <c r="G99" t="n">
-        <v>63015.83333333334</v>
-      </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>62850</v>
+        <v>62750</v>
       </c>
       <c r="C100" t="n">
         <v>62750</v>
       </c>
       <c r="D100" t="n">
-        <v>62850</v>
+        <v>62750</v>
       </c>
       <c r="E100" t="n">
         <v>62750</v>
       </c>
       <c r="F100" t="n">
-        <v>0.53535401</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>63008.33333333334</v>
+        <v>63015.83333333334</v>
       </c>
       <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>62900</v>
+        <v>62850</v>
       </c>
       <c r="C101" t="n">
-        <v>62900</v>
+        <v>62750</v>
       </c>
       <c r="D101" t="n">
-        <v>62900</v>
+        <v>62850</v>
       </c>
       <c r="E101" t="n">
-        <v>62900</v>
+        <v>62750</v>
       </c>
       <c r="F101" t="n">
-        <v>25.9411</v>
+        <v>0.53535401</v>
       </c>
       <c r="G101" t="n">
-        <v>63003.33333333334</v>
+        <v>63008.33333333334</v>
       </c>
       <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>62900</v>
       </c>
       <c r="F102" t="n">
-        <v>0.579</v>
+        <v>25.9411</v>
       </c>
       <c r="G102" t="n">
-        <v>62997.5</v>
+        <v>63003.33333333334</v>
       </c>
       <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>62900</v>
       </c>
       <c r="F103" t="n">
-        <v>3.90885182</v>
+        <v>0.579</v>
       </c>
       <c r="G103" t="n">
-        <v>62991.66666666666</v>
+        <v>62997.5</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>62850</v>
+        <v>62900</v>
       </c>
       <c r="C104" t="n">
-        <v>62850</v>
+        <v>62900</v>
       </c>
       <c r="D104" t="n">
-        <v>62850</v>
+        <v>62900</v>
       </c>
       <c r="E104" t="n">
-        <v>62850</v>
+        <v>62900</v>
       </c>
       <c r="F104" t="n">
-        <v>1.18</v>
+        <v>3.90885182</v>
       </c>
       <c r="G104" t="n">
-        <v>62985</v>
+        <v>62991.66666666666</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>62900</v>
+        <v>62850</v>
       </c>
       <c r="C105" t="n">
-        <v>63000</v>
+        <v>62850</v>
       </c>
       <c r="D105" t="n">
-        <v>63000</v>
+        <v>62850</v>
       </c>
       <c r="E105" t="n">
-        <v>62900</v>
+        <v>62850</v>
       </c>
       <c r="F105" t="n">
-        <v>32.4</v>
+        <v>1.18</v>
       </c>
       <c r="G105" t="n">
-        <v>62980</v>
+        <v>62985</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>63100</v>
+        <v>62900</v>
       </c>
       <c r="C106" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="D106" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="E106" t="n">
-        <v>63100</v>
+        <v>62900</v>
       </c>
       <c r="F106" t="n">
-        <v>6.557</v>
+        <v>32.4</v>
       </c>
       <c r="G106" t="n">
-        <v>62975.83333333334</v>
+        <v>62980</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="C107" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="D107" t="n">
-        <v>63350</v>
+        <v>63100</v>
       </c>
       <c r="E107" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="F107" t="n">
-        <v>71.9121</v>
+        <v>6.557</v>
       </c>
       <c r="G107" t="n">
-        <v>62973.33333333334</v>
+        <v>62975.83333333334</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="C108" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="D108" t="n">
         <v>63350</v>
       </c>
       <c r="E108" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="F108" t="n">
-        <v>104.026</v>
+        <v>71.9121</v>
       </c>
       <c r="G108" t="n">
-        <v>62975</v>
+        <v>62973.33333333334</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>63400</v>
+        <v>63350</v>
       </c>
       <c r="C109" t="n">
         <v>63300</v>
       </c>
       <c r="D109" t="n">
-        <v>63450</v>
+        <v>63350</v>
       </c>
       <c r="E109" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="F109" t="n">
-        <v>295.68410473</v>
+        <v>104.026</v>
       </c>
       <c r="G109" t="n">
-        <v>62976.66666666666</v>
+        <v>62975</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>63350</v>
+        <v>63400</v>
       </c>
       <c r="C110" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="D110" t="n">
-        <v>63350</v>
+        <v>63450</v>
       </c>
       <c r="E110" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="F110" t="n">
-        <v>76.59139999999999</v>
+        <v>295.68410473</v>
       </c>
       <c r="G110" t="n">
-        <v>62979.16666666666</v>
+        <v>62976.66666666666</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>63400</v>
+        <v>63350</v>
       </c>
       <c r="C111" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="D111" t="n">
-        <v>63400</v>
+        <v>63350</v>
       </c>
       <c r="E111" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="F111" t="n">
-        <v>100.0745</v>
+        <v>76.59139999999999</v>
       </c>
       <c r="G111" t="n">
         <v>62979.16666666666</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="C112" t="n">
         <v>63300</v>
       </c>
       <c r="D112" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="E112" t="n">
         <v>63300</v>
       </c>
       <c r="F112" t="n">
-        <v>5.5974</v>
+        <v>100.0745</v>
       </c>
       <c r="G112" t="n">
-        <v>62980.83333333334</v>
+        <v>62979.16666666666</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="C113" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="D113" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="E113" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="F113" t="n">
-        <v>6.0533</v>
+        <v>5.5974</v>
       </c>
       <c r="G113" t="n">
-        <v>62984.16666666666</v>
+        <v>62980.83333333334</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,21 +3664,24 @@
         <v>63400</v>
       </c>
       <c r="C114" t="n">
-        <v>63500</v>
+        <v>63400</v>
       </c>
       <c r="D114" t="n">
-        <v>63500</v>
+        <v>63400</v>
       </c>
       <c r="E114" t="n">
         <v>63400</v>
       </c>
       <c r="F114" t="n">
-        <v>33.5997</v>
+        <v>6.0533</v>
       </c>
       <c r="G114" t="n">
-        <v>62989.16666666666</v>
+        <v>62984.16666666666</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>63550</v>
+        <v>63400</v>
       </c>
       <c r="C115" t="n">
-        <v>63550</v>
+        <v>63500</v>
       </c>
       <c r="D115" t="n">
-        <v>63550</v>
+        <v>63500</v>
       </c>
       <c r="E115" t="n">
-        <v>63550</v>
+        <v>63400</v>
       </c>
       <c r="F115" t="n">
-        <v>14.4291</v>
+        <v>33.5997</v>
       </c>
       <c r="G115" t="n">
-        <v>62996.66666666666</v>
+        <v>62989.16666666666</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>63500</v>
+        <v>63550</v>
       </c>
       <c r="C116" t="n">
-        <v>63500</v>
+        <v>63550</v>
       </c>
       <c r="D116" t="n">
-        <v>63500</v>
+        <v>63550</v>
       </c>
       <c r="E116" t="n">
-        <v>63500</v>
+        <v>63550</v>
       </c>
       <c r="F116" t="n">
-        <v>5.4618</v>
+        <v>14.4291</v>
       </c>
       <c r="G116" t="n">
-        <v>63000</v>
+        <v>62996.66666666666</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,25 +3748,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="C117" t="n">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="D117" t="n">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="E117" t="n">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="F117" t="n">
-        <v>2.2871</v>
+        <v>5.4618</v>
       </c>
       <c r="G117" t="n">
-        <v>63005</v>
+        <v>63000</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3436,12 +3789,15 @@
         <v>63400</v>
       </c>
       <c r="F118" t="n">
-        <v>8.667199999999999</v>
+        <v>2.2871</v>
       </c>
       <c r="G118" t="n">
-        <v>63009.16666666666</v>
+        <v>63005</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>63350</v>
+        <v>63400</v>
       </c>
       <c r="C119" t="n">
-        <v>63350</v>
+        <v>63400</v>
       </c>
       <c r="D119" t="n">
-        <v>63350</v>
+        <v>63400</v>
       </c>
       <c r="E119" t="n">
-        <v>63350</v>
+        <v>63400</v>
       </c>
       <c r="F119" t="n">
-        <v>2.3394</v>
+        <v>8.667199999999999</v>
       </c>
       <c r="G119" t="n">
-        <v>63013.33333333334</v>
+        <v>63009.16666666666</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3479,21 +3838,24 @@
         <v>63350</v>
       </c>
       <c r="C120" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="D120" t="n">
         <v>63350</v>
       </c>
       <c r="E120" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="F120" t="n">
-        <v>37.5124</v>
+        <v>2.3394</v>
       </c>
       <c r="G120" t="n">
-        <v>63016.66666666666</v>
+        <v>63013.33333333334</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="C121" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="D121" t="n">
-        <v>63250</v>
+        <v>63350</v>
       </c>
       <c r="E121" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="F121" t="n">
-        <v>272.078</v>
+        <v>37.5124</v>
       </c>
       <c r="G121" t="n">
-        <v>63017.5</v>
+        <v>63016.66666666666</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="C122" t="n">
         <v>63150</v>
       </c>
       <c r="D122" t="n">
-        <v>63150</v>
+        <v>63250</v>
       </c>
       <c r="E122" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="F122" t="n">
-        <v>3</v>
+        <v>272.078</v>
       </c>
       <c r="G122" t="n">
-        <v>63019.16666666666</v>
+        <v>63017.5</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="C123" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="D123" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="E123" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="G123" t="n">
-        <v>63021.66666666666</v>
+        <v>63019.16666666666</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="C124" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="D124" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="E124" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="F124" t="n">
-        <v>9.997</v>
+        <v>0.1</v>
       </c>
       <c r="G124" t="n">
-        <v>63022.5</v>
+        <v>63021.66666666666</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="C125" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="D125" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="E125" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="F125" t="n">
-        <v>0.4807</v>
+        <v>9.997</v>
       </c>
       <c r="G125" t="n">
-        <v>63024.16666666666</v>
+        <v>63022.5</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>63350</v>
+        <v>63000</v>
       </c>
       <c r="C126" t="n">
-        <v>63350</v>
+        <v>63000</v>
       </c>
       <c r="D126" t="n">
-        <v>63350</v>
+        <v>63000</v>
       </c>
       <c r="E126" t="n">
-        <v>63350</v>
+        <v>63000</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0646</v>
+        <v>0.4807</v>
       </c>
       <c r="G126" t="n">
-        <v>63030.83333333334</v>
+        <v>63024.16666666666</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="C127" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="D127" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="E127" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="F127" t="n">
-        <v>28.4566</v>
+        <v>0.0646</v>
       </c>
       <c r="G127" t="n">
-        <v>63034.16666666666</v>
+        <v>63030.83333333334</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3696,12 +4079,15 @@
         <v>63200</v>
       </c>
       <c r="F128" t="n">
-        <v>1.7164</v>
+        <v>28.4566</v>
       </c>
       <c r="G128" t="n">
-        <v>63038.33333333334</v>
+        <v>63034.16666666666</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="C129" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="D129" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="E129" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="F129" t="n">
-        <v>1.2408</v>
+        <v>1.7164</v>
       </c>
       <c r="G129" t="n">
-        <v>63043.33333333334</v>
+        <v>63038.33333333334</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="C130" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="D130" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="E130" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="F130" t="n">
-        <v>10.9984</v>
+        <v>1.2408</v>
       </c>
       <c r="G130" t="n">
-        <v>63048.33333333334</v>
+        <v>63043.33333333334</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,12 +4166,15 @@
         <v>63200</v>
       </c>
       <c r="F131" t="n">
-        <v>38.4599</v>
+        <v>10.9984</v>
       </c>
       <c r="G131" t="n">
-        <v>63053.33333333334</v>
+        <v>63048.33333333334</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3800,12 +4195,15 @@
         <v>63200</v>
       </c>
       <c r="F132" t="n">
-        <v>4.8765</v>
+        <v>38.4599</v>
       </c>
       <c r="G132" t="n">
-        <v>63058.33333333334</v>
+        <v>63053.33333333334</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>63200</v>
       </c>
       <c r="F133" t="n">
-        <v>1.1507</v>
+        <v>4.8765</v>
       </c>
       <c r="G133" t="n">
-        <v>63063.33333333334</v>
+        <v>63058.33333333334</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3852,12 +4253,15 @@
         <v>63200</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7193000000000001</v>
+        <v>1.1507</v>
       </c>
       <c r="G134" t="n">
-        <v>63068.33333333334</v>
+        <v>63063.33333333334</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="C135" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="D135" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="E135" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="F135" t="n">
-        <v>0.05</v>
+        <v>0.7193000000000001</v>
       </c>
       <c r="G135" t="n">
-        <v>63075</v>
+        <v>63068.33333333334</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="C136" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="D136" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="E136" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="F136" t="n">
-        <v>1.16</v>
+        <v>0.05</v>
       </c>
       <c r="G136" t="n">
-        <v>63080</v>
+        <v>63075</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>63200</v>
       </c>
       <c r="F137" t="n">
-        <v>12.4622</v>
+        <v>1.16</v>
       </c>
       <c r="G137" t="n">
-        <v>63083.33333333334</v>
+        <v>63080</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3947,21 +4360,24 @@
         <v>63200</v>
       </c>
       <c r="C138" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="D138" t="n">
         <v>63200</v>
       </c>
       <c r="E138" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="F138" t="n">
-        <v>56.62475822</v>
+        <v>12.4622</v>
       </c>
       <c r="G138" t="n">
-        <v>63085.83333333334</v>
+        <v>63083.33333333334</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="C139" t="n">
         <v>63050</v>
       </c>
       <c r="D139" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="E139" t="n">
         <v>63050</v>
       </c>
       <c r="F139" t="n">
-        <v>1.3244</v>
+        <v>56.62475822</v>
       </c>
       <c r="G139" t="n">
-        <v>63088.33333333334</v>
+        <v>63085.83333333334</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3999,21 +4418,24 @@
         <v>63050</v>
       </c>
       <c r="C140" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="D140" t="n">
         <v>63050</v>
       </c>
       <c r="E140" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="F140" t="n">
-        <v>5.9239</v>
+        <v>1.3244</v>
       </c>
       <c r="G140" t="n">
-        <v>63090</v>
+        <v>63088.33333333334</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="C141" t="n">
         <v>63000</v>
       </c>
       <c r="D141" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="E141" t="n">
         <v>63000</v>
       </c>
       <c r="F141" t="n">
-        <v>30.2567</v>
+        <v>5.9239</v>
       </c>
       <c r="G141" t="n">
-        <v>63090.83333333334</v>
+        <v>63090</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>63150</v>
+        <v>63000</v>
       </c>
       <c r="C142" t="n">
-        <v>63150</v>
+        <v>63000</v>
       </c>
       <c r="D142" t="n">
-        <v>63150</v>
+        <v>63000</v>
       </c>
       <c r="E142" t="n">
-        <v>63150</v>
+        <v>63000</v>
       </c>
       <c r="F142" t="n">
-        <v>0.05277909</v>
+        <v>30.2567</v>
       </c>
       <c r="G142" t="n">
-        <v>63092.5</v>
+        <v>63090.83333333334</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>63050</v>
+        <v>63150</v>
       </c>
       <c r="C143" t="n">
-        <v>63050</v>
+        <v>63150</v>
       </c>
       <c r="D143" t="n">
-        <v>63050</v>
+        <v>63150</v>
       </c>
       <c r="E143" t="n">
-        <v>63050</v>
+        <v>63150</v>
       </c>
       <c r="F143" t="n">
-        <v>1.5286</v>
+        <v>0.05277909</v>
       </c>
       <c r="G143" t="n">
-        <v>63094.16666666666</v>
+        <v>63092.5</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4112,12 +4543,15 @@
         <v>63050</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0872</v>
+        <v>1.5286</v>
       </c>
       <c r="G144" t="n">
-        <v>63095.83333333334</v>
+        <v>63094.16666666666</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>63050</v>
       </c>
       <c r="F145" t="n">
-        <v>2.158</v>
+        <v>0.0872</v>
       </c>
       <c r="G145" t="n">
-        <v>63097.5</v>
+        <v>63095.83333333334</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="C146" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="D146" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="E146" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="F146" t="n">
-        <v>5.8391</v>
+        <v>2.158</v>
       </c>
       <c r="G146" t="n">
         <v>63097.5</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="C147" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="D147" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="E147" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="F147" t="n">
-        <v>22.2024</v>
+        <v>5.8391</v>
       </c>
       <c r="G147" t="n">
-        <v>63100</v>
+        <v>63097.5</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="C148" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="D148" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="E148" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="F148" t="n">
-        <v>0.1592</v>
+        <v>22.2024</v>
       </c>
       <c r="G148" t="n">
-        <v>63104.16666666666</v>
+        <v>63100</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="C149" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="D149" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="E149" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="F149" t="n">
-        <v>2.341</v>
+        <v>0.1592</v>
       </c>
       <c r="G149" t="n">
-        <v>63106.66666666666</v>
+        <v>63104.16666666666</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="C150" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="D150" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="E150" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9184</v>
+        <v>2.341</v>
       </c>
       <c r="G150" t="n">
-        <v>63107.5</v>
+        <v>63106.66666666666</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4294,12 +4746,15 @@
         <v>63000</v>
       </c>
       <c r="F151" t="n">
-        <v>17.1044</v>
+        <v>0.9184</v>
       </c>
       <c r="G151" t="n">
-        <v>63110.83333333334</v>
+        <v>63107.5</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4320,12 +4775,15 @@
         <v>63000</v>
       </c>
       <c r="F152" t="n">
-        <v>107.8064</v>
+        <v>17.1044</v>
       </c>
       <c r="G152" t="n">
-        <v>63114.16666666666</v>
+        <v>63110.83333333334</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="C153" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="D153" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="E153" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="F153" t="n">
-        <v>0.3965107</v>
+        <v>107.8064</v>
       </c>
       <c r="G153" t="n">
-        <v>63118.33333333334</v>
+        <v>63114.16666666666</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="C154" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="D154" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="E154" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="F154" t="n">
-        <v>6.49</v>
+        <v>0.3965107</v>
       </c>
       <c r="G154" t="n">
-        <v>63121.66666666666</v>
+        <v>63118.33333333334</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4398,12 +4862,15 @@
         <v>62900</v>
       </c>
       <c r="F155" t="n">
-        <v>2.6862</v>
+        <v>6.49</v>
       </c>
       <c r="G155" t="n">
-        <v>63125</v>
+        <v>63121.66666666666</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>62900</v>
       </c>
       <c r="F156" t="n">
-        <v>6.73</v>
+        <v>2.6862</v>
       </c>
       <c r="G156" t="n">
-        <v>63125.83333333334</v>
+        <v>63125</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4450,12 +4920,15 @@
         <v>62900</v>
       </c>
       <c r="F157" t="n">
-        <v>3.977</v>
+        <v>6.73</v>
       </c>
       <c r="G157" t="n">
-        <v>63127.5</v>
+        <v>63125.83333333334</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="C158" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="D158" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="E158" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="F158" t="n">
-        <v>21.7067</v>
+        <v>3.977</v>
       </c>
       <c r="G158" t="n">
-        <v>63132.5</v>
+        <v>63127.5</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="C159" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="D159" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="E159" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="F159" t="n">
-        <v>29.4653</v>
+        <v>21.7067</v>
       </c>
       <c r="G159" t="n">
-        <v>63138.33333333334</v>
+        <v>63132.5</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,7 +4995,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="C160" t="n">
         <v>63100</v>
@@ -4525,15 +5004,18 @@
         <v>63100</v>
       </c>
       <c r="E160" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="F160" t="n">
-        <v>19.7386</v>
+        <v>29.4653</v>
       </c>
       <c r="G160" t="n">
-        <v>63144.16666666666</v>
+        <v>63138.33333333334</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4545,21 +5027,24 @@
         <v>63100</v>
       </c>
       <c r="C161" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="D161" t="n">
         <v>63100</v>
       </c>
       <c r="E161" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="F161" t="n">
-        <v>55.2473</v>
+        <v>19.7386</v>
       </c>
       <c r="G161" t="n">
-        <v>63146.66666666666</v>
+        <v>63144.16666666666</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="C162" t="n">
         <v>63050</v>
       </c>
       <c r="D162" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="E162" t="n">
         <v>63050</v>
       </c>
       <c r="F162" t="n">
-        <v>9.976800000000001</v>
+        <v>55.2473</v>
       </c>
       <c r="G162" t="n">
-        <v>63149.16666666666</v>
+        <v>63146.66666666666</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="C163" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="D163" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="E163" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="F163" t="n">
-        <v>39.9732</v>
+        <v>9.976800000000001</v>
       </c>
       <c r="G163" t="n">
-        <v>63150.83333333334</v>
+        <v>63149.16666666666</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="C164" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="D164" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="E164" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="F164" t="n">
-        <v>0.01760697</v>
+        <v>39.9732</v>
       </c>
       <c r="G164" t="n">
-        <v>63155</v>
+        <v>63150.83333333334</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="C165" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="D165" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="E165" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="F165" t="n">
-        <v>7.3162</v>
+        <v>0.01760697</v>
       </c>
       <c r="G165" t="n">
-        <v>63155.83333333334</v>
+        <v>63155</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="C166" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="D166" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="E166" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="F166" t="n">
-        <v>2.0849</v>
+        <v>7.3162</v>
       </c>
       <c r="G166" t="n">
-        <v>63153.33333333334</v>
+        <v>63155.83333333334</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>63100</v>
+        <v>62950</v>
       </c>
       <c r="C167" t="n">
-        <v>63100</v>
+        <v>62950</v>
       </c>
       <c r="D167" t="n">
-        <v>63100</v>
+        <v>62950</v>
       </c>
       <c r="E167" t="n">
-        <v>63100</v>
+        <v>62950</v>
       </c>
       <c r="F167" t="n">
-        <v>0.799</v>
+        <v>2.0849</v>
       </c>
       <c r="G167" t="n">
-        <v>63151.66666666666</v>
+        <v>63153.33333333334</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="C168" t="n">
-        <v>62900</v>
+        <v>63100</v>
       </c>
       <c r="D168" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="E168" t="n">
-        <v>62900</v>
+        <v>63100</v>
       </c>
       <c r="F168" t="n">
-        <v>4.6269</v>
+        <v>0.799</v>
       </c>
       <c r="G168" t="n">
-        <v>63145</v>
+        <v>63151.66666666666</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4753,21 +5259,24 @@
         <v>63000</v>
       </c>
       <c r="C169" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="D169" t="n">
         <v>63000</v>
       </c>
       <c r="E169" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="F169" t="n">
-        <v>3.1277</v>
+        <v>4.6269</v>
       </c>
       <c r="G169" t="n">
-        <v>63140</v>
+        <v>63145</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="C170" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="D170" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="E170" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="F170" t="n">
-        <v>2.6958</v>
+        <v>3.1277</v>
       </c>
       <c r="G170" t="n">
-        <v>63133.33333333334</v>
+        <v>63140</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4814,12 +5326,15 @@
         <v>62950</v>
       </c>
       <c r="F171" t="n">
-        <v>6.8851</v>
+        <v>2.6958</v>
       </c>
       <c r="G171" t="n">
-        <v>63127.5</v>
+        <v>63133.33333333334</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="C172" t="n">
         <v>62950</v>
       </c>
       <c r="D172" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="E172" t="n">
         <v>62950</v>
       </c>
       <c r="F172" t="n">
-        <v>1.8393</v>
+        <v>6.8851</v>
       </c>
       <c r="G172" t="n">
-        <v>63121.66666666666</v>
+        <v>63127.5</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="C173" t="n">
         <v>62950</v>
       </c>
       <c r="D173" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="E173" t="n">
         <v>62950</v>
       </c>
       <c r="F173" t="n">
-        <v>14.4191</v>
+        <v>1.8393</v>
       </c>
       <c r="G173" t="n">
-        <v>63114.16666666666</v>
+        <v>63121.66666666666</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="C174" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="D174" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="E174" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="F174" t="n">
-        <v>0.7402</v>
+        <v>14.4191</v>
       </c>
       <c r="G174" t="n">
-        <v>63105.83333333334</v>
+        <v>63114.16666666666</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4918,12 +5442,15 @@
         <v>63000</v>
       </c>
       <c r="F175" t="n">
-        <v>0.3843</v>
+        <v>0.7402</v>
       </c>
       <c r="G175" t="n">
-        <v>63096.66666666666</v>
+        <v>63105.83333333334</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="C176" t="n">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="D176" t="n">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="E176" t="n">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="F176" t="n">
-        <v>16.552</v>
+        <v>0.3843</v>
       </c>
       <c r="G176" t="n">
-        <v>63086.66666666666</v>
+        <v>63096.66666666666</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="C177" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="D177" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="E177" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="F177" t="n">
-        <v>91.6262</v>
+        <v>16.552</v>
       </c>
       <c r="G177" t="n">
-        <v>63076.66666666666</v>
+        <v>63086.66666666666</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4996,12 +5529,15 @@
         <v>62800</v>
       </c>
       <c r="F178" t="n">
-        <v>18.2837</v>
+        <v>91.6262</v>
       </c>
       <c r="G178" t="n">
-        <v>63066.66666666666</v>
+        <v>63076.66666666666</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5019,15 +5555,18 @@
         <v>62800</v>
       </c>
       <c r="E179" t="n">
-        <v>62750</v>
+        <v>62800</v>
       </c>
       <c r="F179" t="n">
-        <v>57.7636</v>
+        <v>18.2837</v>
       </c>
       <c r="G179" t="n">
-        <v>63057.5</v>
+        <v>63066.66666666666</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="C180" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="D180" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="E180" t="n">
-        <v>62900</v>
+        <v>62750</v>
       </c>
       <c r="F180" t="n">
-        <v>0.01799682</v>
+        <v>57.7636</v>
       </c>
       <c r="G180" t="n">
-        <v>63052.5</v>
+        <v>63057.5</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5074,12 +5616,15 @@
         <v>62900</v>
       </c>
       <c r="F181" t="n">
-        <v>0.15</v>
+        <v>0.01799682</v>
       </c>
       <c r="G181" t="n">
-        <v>63048.33333333334</v>
+        <v>63052.5</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="C182" t="n">
-        <v>63050</v>
+        <v>62900</v>
       </c>
       <c r="D182" t="n">
-        <v>63050</v>
+        <v>62900</v>
       </c>
       <c r="E182" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="F182" t="n">
-        <v>29.7144</v>
+        <v>0.15</v>
       </c>
       <c r="G182" t="n">
-        <v>63046.66666666666</v>
+        <v>63048.33333333334</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="C183" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="D183" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="E183" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="F183" t="n">
-        <v>1.2056</v>
+        <v>29.7144</v>
       </c>
       <c r="G183" t="n">
-        <v>63045</v>
+        <v>63046.66666666666</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>63200</v>
+        <v>63050</v>
       </c>
       <c r="C184" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="D184" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="E184" t="n">
-        <v>63200</v>
+        <v>63050</v>
       </c>
       <c r="F184" t="n">
-        <v>53.6806</v>
+        <v>1.2056</v>
       </c>
       <c r="G184" t="n">
-        <v>63046.66666666666</v>
+        <v>63045</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="C185" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="D185" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="E185" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="F185" t="n">
-        <v>41.7798</v>
+        <v>53.6806</v>
       </c>
       <c r="G185" t="n">
-        <v>63050.83333333334</v>
+        <v>63046.66666666666</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5195,21 +5752,24 @@
         <v>63300</v>
       </c>
       <c r="C186" t="n">
-        <v>63300</v>
+        <v>63250</v>
       </c>
       <c r="D186" t="n">
         <v>63300</v>
       </c>
       <c r="E186" t="n">
-        <v>63300</v>
+        <v>63250</v>
       </c>
       <c r="F186" t="n">
-        <v>5.262</v>
+        <v>41.7798</v>
       </c>
       <c r="G186" t="n">
-        <v>63050</v>
+        <v>63050.83333333334</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5230,12 +5790,15 @@
         <v>63300</v>
       </c>
       <c r="F187" t="n">
-        <v>43.1608</v>
+        <v>5.262</v>
       </c>
       <c r="G187" t="n">
-        <v>63051.66666666666</v>
+        <v>63050</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5256,12 +5819,15 @@
         <v>63300</v>
       </c>
       <c r="F188" t="n">
-        <v>0.524</v>
+        <v>43.1608</v>
       </c>
       <c r="G188" t="n">
-        <v>63053.33333333334</v>
+        <v>63051.66666666666</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5282,12 +5848,15 @@
         <v>63300</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3368</v>
+        <v>0.524</v>
       </c>
       <c r="G189" t="n">
-        <v>63054.16666666666</v>
+        <v>63053.33333333334</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5308,12 +5877,15 @@
         <v>63300</v>
       </c>
       <c r="F190" t="n">
-        <v>3.7271</v>
+        <v>0.3368</v>
       </c>
       <c r="G190" t="n">
-        <v>63055.83333333334</v>
+        <v>63054.16666666666</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="C191" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="D191" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="E191" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="F191" t="n">
-        <v>46.5394</v>
+        <v>3.7271</v>
       </c>
       <c r="G191" t="n">
         <v>63055.83333333334</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="C192" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="D192" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="E192" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="F192" t="n">
-        <v>1.0863</v>
+        <v>46.5394</v>
       </c>
       <c r="G192" t="n">
-        <v>63056.66666666666</v>
+        <v>63055.83333333334</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5386,12 +5964,15 @@
         <v>63250</v>
       </c>
       <c r="F193" t="n">
-        <v>0.7544</v>
+        <v>1.0863</v>
       </c>
       <c r="G193" t="n">
-        <v>63057.5</v>
+        <v>63056.66666666666</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5403,21 +5984,24 @@
         <v>63250</v>
       </c>
       <c r="C194" t="n">
-        <v>63300</v>
+        <v>63250</v>
       </c>
       <c r="D194" t="n">
-        <v>63300</v>
+        <v>63250</v>
       </c>
       <c r="E194" t="n">
         <v>63250</v>
       </c>
       <c r="F194" t="n">
-        <v>21.388</v>
+        <v>0.7544</v>
       </c>
       <c r="G194" t="n">
-        <v>63059.16666666666</v>
+        <v>63057.5</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>63350</v>
+        <v>63250</v>
       </c>
       <c r="C195" t="n">
         <v>63300</v>
       </c>
       <c r="D195" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="E195" t="n">
-        <v>63300</v>
+        <v>63250</v>
       </c>
       <c r="F195" t="n">
-        <v>22.7466</v>
+        <v>21.388</v>
       </c>
       <c r="G195" t="n">
         <v>63059.16666666666</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="C196" t="n">
         <v>63300</v>
       </c>
       <c r="D196" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="E196" t="n">
         <v>63300</v>
       </c>
       <c r="F196" t="n">
-        <v>0.04458135</v>
+        <v>22.7466</v>
       </c>
       <c r="G196" t="n">
-        <v>63060.83333333334</v>
+        <v>63059.16666666666</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="C197" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="D197" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="E197" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="F197" t="n">
-        <v>0.15853196</v>
+        <v>0.04458135</v>
       </c>
       <c r="G197" t="n">
-        <v>63063.33333333334</v>
+        <v>63060.83333333334</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="C198" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="D198" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="E198" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="F198" t="n">
-        <v>0.3847</v>
+        <v>0.15853196</v>
       </c>
       <c r="G198" t="n">
-        <v>63065.83333333334</v>
+        <v>63063.33333333334</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="C199" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="D199" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="E199" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="F199" t="n">
-        <v>1.22999897</v>
+        <v>0.3847</v>
       </c>
       <c r="G199" t="n">
-        <v>63070</v>
+        <v>63065.83333333334</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="C200" t="n">
         <v>63300</v>
       </c>
       <c r="D200" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="E200" t="n">
         <v>63300</v>
       </c>
       <c r="F200" t="n">
-        <v>0.15797788</v>
+        <v>1.22999897</v>
       </c>
       <c r="G200" t="n">
-        <v>63075</v>
+        <v>63070</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,24 +6184,27 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="C201" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="D201" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="E201" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="F201" t="n">
-        <v>8.5</v>
+        <v>0.15797788</v>
       </c>
       <c r="G201" t="n">
-        <v>63080.83333333334</v>
+        <v>63075</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="C202" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="D202" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="E202" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="F202" t="n">
-        <v>16.7804</v>
+        <v>8.5</v>
       </c>
       <c r="G202" t="n">
-        <v>63081.66666666666</v>
+        <v>63080.83333333334</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5646,12 +6254,15 @@
         <v>63200</v>
       </c>
       <c r="F203" t="n">
-        <v>36.2955</v>
+        <v>16.7804</v>
       </c>
       <c r="G203" t="n">
-        <v>63084.16666666666</v>
+        <v>63081.66666666666</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="C204" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="D204" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="E204" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="F204" t="n">
-        <v>1.1017</v>
+        <v>36.2955</v>
       </c>
       <c r="G204" t="n">
-        <v>63085</v>
+        <v>63084.16666666666</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5698,12 +6312,15 @@
         <v>63100</v>
       </c>
       <c r="F205" t="n">
-        <v>0.3157</v>
+        <v>1.1017</v>
       </c>
       <c r="G205" t="n">
-        <v>63085.83333333334</v>
+        <v>63085</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="C206" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="D206" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="E206" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="F206" t="n">
-        <v>12.4806</v>
+        <v>0.3157</v>
       </c>
       <c r="G206" t="n">
-        <v>63089.16666666666</v>
+        <v>63085.83333333334</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,7 +6358,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="C207" t="n">
         <v>63200</v>
@@ -5747,15 +6367,18 @@
         <v>63200</v>
       </c>
       <c r="E207" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="F207" t="n">
-        <v>69.7492</v>
+        <v>12.4806</v>
       </c>
       <c r="G207" t="n">
-        <v>63090.83333333334</v>
+        <v>63089.16666666666</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5776,12 +6399,15 @@
         <v>63200</v>
       </c>
       <c r="F208" t="n">
-        <v>1.1782</v>
+        <v>69.7492</v>
       </c>
       <c r="G208" t="n">
         <v>63090.83333333334</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5802,12 +6428,15 @@
         <v>63200</v>
       </c>
       <c r="F209" t="n">
-        <v>5.1906</v>
+        <v>1.1782</v>
       </c>
       <c r="G209" t="n">
-        <v>63092.5</v>
+        <v>63090.83333333334</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,12 +6457,15 @@
         <v>63200</v>
       </c>
       <c r="F210" t="n">
-        <v>4.0124</v>
+        <v>5.1906</v>
       </c>
       <c r="G210" t="n">
-        <v>63095.83333333334</v>
+        <v>63092.5</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5854,12 +6486,15 @@
         <v>63200</v>
       </c>
       <c r="F211" t="n">
-        <v>1.738</v>
+        <v>4.0124</v>
       </c>
       <c r="G211" t="n">
-        <v>63099.16666666666</v>
+        <v>63095.83333333334</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5880,12 +6515,15 @@
         <v>63200</v>
       </c>
       <c r="F212" t="n">
-        <v>2.2845</v>
+        <v>1.738</v>
       </c>
       <c r="G212" t="n">
-        <v>63102.5</v>
+        <v>63099.16666666666</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,24 +6532,27 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="C213" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="D213" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="E213" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="F213" t="n">
-        <v>2.8297</v>
+        <v>2.2845</v>
       </c>
       <c r="G213" t="n">
-        <v>63106.66666666666</v>
+        <v>63102.5</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5932,12 +6573,15 @@
         <v>63300</v>
       </c>
       <c r="F214" t="n">
-        <v>0.5809</v>
+        <v>2.8297</v>
       </c>
       <c r="G214" t="n">
-        <v>63113.33333333334</v>
+        <v>63106.66666666666</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,24 +6590,27 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="C215" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="D215" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="E215" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="F215" t="n">
-        <v>28.5</v>
+        <v>0.5809</v>
       </c>
       <c r="G215" t="n">
-        <v>63118.33333333334</v>
+        <v>63113.33333333334</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5975,21 +6622,24 @@
         <v>63200</v>
       </c>
       <c r="C216" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="D216" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="E216" t="n">
         <v>63200</v>
       </c>
       <c r="F216" t="n">
-        <v>16.954</v>
+        <v>28.5</v>
       </c>
       <c r="G216" t="n">
-        <v>63125</v>
+        <v>63118.33333333334</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="C217" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="D217" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="E217" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="F217" t="n">
-        <v>0.4021</v>
+        <v>16.954</v>
       </c>
       <c r="G217" t="n">
-        <v>63132.5</v>
+        <v>63125</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="C218" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="D218" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="E218" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="F218" t="n">
-        <v>11.0225</v>
+        <v>0.4021</v>
       </c>
       <c r="G218" t="n">
-        <v>63135.83333333334</v>
+        <v>63132.5</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6062,12 +6718,15 @@
         <v>63200</v>
       </c>
       <c r="F219" t="n">
-        <v>0.7</v>
+        <v>11.0225</v>
       </c>
       <c r="G219" t="n">
-        <v>63137.5</v>
+        <v>63135.83333333334</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="C220" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="D220" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="E220" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="F220" t="n">
-        <v>1.8484925</v>
+        <v>0.7</v>
       </c>
       <c r="G220" t="n">
-        <v>63141.66666666666</v>
+        <v>63137.5</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>63250</v>
+        <v>63350</v>
       </c>
       <c r="C221" t="n">
-        <v>63250</v>
+        <v>63350</v>
       </c>
       <c r="D221" t="n">
-        <v>63250</v>
+        <v>63350</v>
       </c>
       <c r="E221" t="n">
-        <v>63250</v>
+        <v>63350</v>
       </c>
       <c r="F221" t="n">
-        <v>5.8121</v>
+        <v>1.8484925</v>
       </c>
       <c r="G221" t="n">
-        <v>63145</v>
+        <v>63141.66666666666</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6131,21 +6796,24 @@
         <v>63250</v>
       </c>
       <c r="C222" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="D222" t="n">
         <v>63250</v>
       </c>
       <c r="E222" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="F222" t="n">
-        <v>95.83410000000001</v>
+        <v>5.8121</v>
       </c>
       <c r="G222" t="n">
-        <v>63147.5</v>
+        <v>63145</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,24 +6822,27 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="C223" t="n">
         <v>63200</v>
       </c>
       <c r="D223" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="E223" t="n">
         <v>63200</v>
       </c>
       <c r="F223" t="n">
-        <v>11.1</v>
+        <v>95.83410000000001</v>
       </c>
       <c r="G223" t="n">
-        <v>63150.83333333334</v>
+        <v>63147.5</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,24 +6851,27 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="C224" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="D224" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="E224" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="F224" t="n">
-        <v>106.0546</v>
+        <v>11.1</v>
       </c>
       <c r="G224" t="n">
-        <v>63150</v>
+        <v>63150.83333333334</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="C225" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="D225" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="E225" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="F225" t="n">
-        <v>33.4797</v>
+        <v>106.0546</v>
       </c>
       <c r="G225" t="n">
-        <v>63149.16666666666</v>
+        <v>63150</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6244,12 +6921,15 @@
         <v>63000</v>
       </c>
       <c r="F226" t="n">
-        <v>5</v>
+        <v>33.4797</v>
       </c>
       <c r="G226" t="n">
-        <v>63150</v>
+        <v>63149.16666666666</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>63200</v>
+        <v>63000</v>
       </c>
       <c r="C227" t="n">
-        <v>63200</v>
+        <v>63000</v>
       </c>
       <c r="D227" t="n">
-        <v>63200</v>
+        <v>63000</v>
       </c>
       <c r="E227" t="n">
-        <v>63200</v>
+        <v>63000</v>
       </c>
       <c r="F227" t="n">
-        <v>3.2614</v>
+        <v>5</v>
       </c>
       <c r="G227" t="n">
-        <v>63151.66666666666</v>
+        <v>63150</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="C228" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="D228" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="E228" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="F228" t="n">
-        <v>3.552</v>
+        <v>3.2614</v>
       </c>
       <c r="G228" t="n">
-        <v>63155</v>
+        <v>63151.66666666666</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="C229" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="D229" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="E229" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="F229" t="n">
-        <v>56.3452</v>
+        <v>3.552</v>
       </c>
       <c r="G229" t="n">
         <v>63155</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6348,12 +7037,15 @@
         <v>63000</v>
       </c>
       <c r="F230" t="n">
-        <v>5.175</v>
+        <v>56.3452</v>
       </c>
       <c r="G230" t="n">
-        <v>63155.83333333334</v>
+        <v>63155</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,24 +7054,27 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="C231" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="D231" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="E231" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="F231" t="n">
-        <v>2.0244</v>
+        <v>5.175</v>
       </c>
       <c r="G231" t="n">
-        <v>63157.5</v>
+        <v>63155.83333333334</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="C232" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="D232" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="E232" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="F232" t="n">
-        <v>18.5465</v>
+        <v>2.0244</v>
       </c>
       <c r="G232" t="n">
-        <v>63160</v>
+        <v>63157.5</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6426,12 +7124,15 @@
         <v>63100</v>
       </c>
       <c r="F233" t="n">
-        <v>0.5987</v>
+        <v>18.5465</v>
       </c>
       <c r="G233" t="n">
-        <v>63162.5</v>
+        <v>63160</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6452,12 +7153,15 @@
         <v>63100</v>
       </c>
       <c r="F234" t="n">
-        <v>8.897399999999999</v>
+        <v>0.5987</v>
       </c>
       <c r="G234" t="n">
-        <v>63164.16666666666</v>
+        <v>63162.5</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6469,21 +7173,24 @@
         <v>63100</v>
       </c>
       <c r="C235" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="D235" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="E235" t="n">
         <v>63100</v>
       </c>
       <c r="F235" t="n">
-        <v>19.6601</v>
+        <v>8.897399999999999</v>
       </c>
       <c r="G235" t="n">
-        <v>63167.5</v>
+        <v>63164.16666666666</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,7 +7199,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="C236" t="n">
         <v>63200</v>
@@ -6501,15 +7208,18 @@
         <v>63200</v>
       </c>
       <c r="E236" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="F236" t="n">
-        <v>1.2428</v>
+        <v>19.6601</v>
       </c>
       <c r="G236" t="n">
-        <v>63172.5</v>
+        <v>63167.5</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="C237" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="D237" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="E237" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="F237" t="n">
-        <v>0.3892</v>
+        <v>1.2428</v>
       </c>
       <c r="G237" t="n">
-        <v>63178.33333333334</v>
+        <v>63172.5</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,24 +7257,27 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="C238" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="D238" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="E238" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="F238" t="n">
-        <v>0.5971</v>
+        <v>0.3892</v>
       </c>
       <c r="G238" t="n">
-        <v>63185</v>
+        <v>63178.33333333334</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6582,12 +7298,15 @@
         <v>63200</v>
       </c>
       <c r="F239" t="n">
-        <v>0.7999000000000001</v>
+        <v>0.5971</v>
       </c>
       <c r="G239" t="n">
-        <v>63191.66666666666</v>
+        <v>63185</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,24 +7315,27 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="C240" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="D240" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="E240" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="F240" t="n">
-        <v>63.8477</v>
+        <v>0.7999000000000001</v>
       </c>
       <c r="G240" t="n">
-        <v>63194.16666666666</v>
+        <v>63191.66666666666</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,24 +7344,27 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="C241" t="n">
         <v>63050</v>
       </c>
       <c r="D241" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="E241" t="n">
         <v>63050</v>
       </c>
       <c r="F241" t="n">
-        <v>65.32989999999999</v>
+        <v>63.8477</v>
       </c>
       <c r="G241" t="n">
-        <v>63196.66666666666</v>
+        <v>63194.16666666666</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6660,12 +7385,15 @@
         <v>63050</v>
       </c>
       <c r="F242" t="n">
-        <v>10.6428</v>
+        <v>65.32989999999999</v>
       </c>
       <c r="G242" t="n">
         <v>63196.66666666666</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,24 +7402,27 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="C243" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="D243" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="E243" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="F243" t="n">
-        <v>12.4087</v>
+        <v>10.6428</v>
       </c>
       <c r="G243" t="n">
-        <v>63195</v>
+        <v>63196.66666666666</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6703,21 +7434,24 @@
         <v>63100</v>
       </c>
       <c r="C244" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="D244" t="n">
         <v>63100</v>
       </c>
       <c r="E244" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="F244" t="n">
-        <v>7</v>
+        <v>12.4087</v>
       </c>
       <c r="G244" t="n">
-        <v>63193.33333333334</v>
+        <v>63195</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6738,12 +7472,15 @@
         <v>63100</v>
       </c>
       <c r="F245" t="n">
-        <v>1.9265</v>
+        <v>7</v>
       </c>
       <c r="G245" t="n">
-        <v>63190.83333333334</v>
+        <v>63193.33333333334</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6764,12 +7501,15 @@
         <v>63100</v>
       </c>
       <c r="F246" t="n">
-        <v>96.251</v>
+        <v>1.9265</v>
       </c>
       <c r="G246" t="n">
-        <v>63187.5</v>
+        <v>63190.83333333334</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6781,21 +7521,24 @@
         <v>63100</v>
       </c>
       <c r="C247" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="D247" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="E247" t="n">
         <v>63100</v>
       </c>
       <c r="F247" t="n">
-        <v>0.9231</v>
+        <v>96.251</v>
       </c>
       <c r="G247" t="n">
-        <v>63185</v>
+        <v>63187.5</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6804,7 +7547,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="C248" t="n">
         <v>63150</v>
@@ -6813,15 +7556,18 @@
         <v>63150</v>
       </c>
       <c r="E248" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="F248" t="n">
-        <v>1.31881234</v>
+        <v>0.9231</v>
       </c>
       <c r="G248" t="n">
-        <v>63182.5</v>
+        <v>63185</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6830,24 +7576,27 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="C249" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="D249" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="E249" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="F249" t="n">
-        <v>0.0448</v>
+        <v>1.31881234</v>
       </c>
       <c r="G249" t="n">
-        <v>63177.5</v>
+        <v>63182.5</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6859,21 +7608,24 @@
         <v>63000</v>
       </c>
       <c r="C250" t="n">
-        <v>62750</v>
+        <v>63000</v>
       </c>
       <c r="D250" t="n">
         <v>63000</v>
       </c>
       <c r="E250" t="n">
-        <v>62750</v>
+        <v>63000</v>
       </c>
       <c r="F250" t="n">
-        <v>371.0002</v>
+        <v>0.0448</v>
       </c>
       <c r="G250" t="n">
-        <v>63168.33333333334</v>
+        <v>63177.5</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6882,24 +7634,27 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>62600</v>
+        <v>63000</v>
       </c>
       <c r="C251" t="n">
-        <v>62500</v>
+        <v>62750</v>
       </c>
       <c r="D251" t="n">
-        <v>62600</v>
+        <v>63000</v>
       </c>
       <c r="E251" t="n">
-        <v>62500</v>
+        <v>62750</v>
       </c>
       <c r="F251" t="n">
-        <v>40.5083</v>
+        <v>371.0002</v>
       </c>
       <c r="G251" t="n">
-        <v>63156.66666666666</v>
+        <v>63168.33333333334</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6911,7 +7666,7 @@
         <v>62600</v>
       </c>
       <c r="C252" t="n">
-        <v>62600</v>
+        <v>62500</v>
       </c>
       <c r="D252" t="n">
         <v>62600</v>
@@ -6920,12 +7675,15 @@
         <v>62500</v>
       </c>
       <c r="F252" t="n">
-        <v>22.5211</v>
+        <v>40.5083</v>
       </c>
       <c r="G252" t="n">
-        <v>63145.83333333334</v>
+        <v>63156.66666666666</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6934,24 +7692,27 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>62700</v>
+        <v>62600</v>
       </c>
       <c r="C253" t="n">
-        <v>62750</v>
+        <v>62600</v>
       </c>
       <c r="D253" t="n">
-        <v>62750</v>
+        <v>62600</v>
       </c>
       <c r="E253" t="n">
-        <v>62700</v>
+        <v>62500</v>
       </c>
       <c r="F253" t="n">
-        <v>16.2758</v>
+        <v>22.5211</v>
       </c>
       <c r="G253" t="n">
-        <v>63137.5</v>
+        <v>63145.83333333334</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6963,21 +7724,24 @@
         <v>62700</v>
       </c>
       <c r="C254" t="n">
-        <v>62700</v>
+        <v>62750</v>
       </c>
       <c r="D254" t="n">
-        <v>62700</v>
+        <v>62750</v>
       </c>
       <c r="E254" t="n">
         <v>62700</v>
       </c>
       <c r="F254" t="n">
-        <v>32.853</v>
+        <v>16.2758</v>
       </c>
       <c r="G254" t="n">
-        <v>63127.5</v>
+        <v>63137.5</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="C255" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="D255" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="E255" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="F255" t="n">
-        <v>0.9173</v>
+        <v>32.853</v>
       </c>
       <c r="G255" t="n">
-        <v>63119.16666666666</v>
+        <v>63127.5</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7024,12 +7791,15 @@
         <v>62800</v>
       </c>
       <c r="F256" t="n">
-        <v>1.417</v>
+        <v>0.9173</v>
       </c>
       <c r="G256" t="n">
-        <v>63110.83333333334</v>
+        <v>63119.16666666666</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7038,24 +7808,27 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="C257" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="D257" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="E257" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="F257" t="n">
-        <v>34.925</v>
+        <v>1.417</v>
       </c>
       <c r="G257" t="n">
-        <v>63100</v>
+        <v>63110.83333333334</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7076,12 +7849,15 @@
         <v>62700</v>
       </c>
       <c r="F258" t="n">
-        <v>1.5703</v>
+        <v>34.925</v>
       </c>
       <c r="G258" t="n">
-        <v>63091.66666666666</v>
+        <v>63100</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7090,24 +7866,27 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="C259" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="D259" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="E259" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="F259" t="n">
-        <v>6.0093</v>
+        <v>1.5703</v>
       </c>
       <c r="G259" t="n">
-        <v>63083.33333333334</v>
+        <v>63091.66666666666</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7116,544 +7895,27 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="C260" t="n">
-        <v>62950</v>
+        <v>62800</v>
       </c>
       <c r="D260" t="n">
-        <v>62950</v>
+        <v>62800</v>
       </c>
       <c r="E260" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="F260" t="n">
-        <v>101.0437</v>
+        <v>6.0093</v>
       </c>
       <c r="G260" t="n">
-        <v>63077.5</v>
+        <v>63083.33333333334</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>62900</v>
-      </c>
-      <c r="C261" t="n">
-        <v>62900</v>
-      </c>
-      <c r="D261" t="n">
-        <v>62900</v>
-      </c>
-      <c r="E261" t="n">
-        <v>62900</v>
-      </c>
-      <c r="F261" t="n">
-        <v>26.8739</v>
-      </c>
-      <c r="G261" t="n">
-        <v>63070</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>62900</v>
-      </c>
-      <c r="C262" t="n">
-        <v>62900</v>
-      </c>
-      <c r="D262" t="n">
-        <v>62900</v>
-      </c>
-      <c r="E262" t="n">
-        <v>62900</v>
-      </c>
-      <c r="F262" t="n">
-        <v>19.3148</v>
-      </c>
-      <c r="G262" t="n">
-        <v>63065</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>62900</v>
-      </c>
-      <c r="C263" t="n">
-        <v>62900</v>
-      </c>
-      <c r="D263" t="n">
-        <v>62900</v>
-      </c>
-      <c r="E263" t="n">
-        <v>62900</v>
-      </c>
-      <c r="F263" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="G263" t="n">
-        <v>63060</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>62900</v>
-      </c>
-      <c r="C264" t="n">
-        <v>62900</v>
-      </c>
-      <c r="D264" t="n">
-        <v>62900</v>
-      </c>
-      <c r="E264" t="n">
-        <v>62900</v>
-      </c>
-      <c r="F264" t="n">
-        <v>22.3623</v>
-      </c>
-      <c r="G264" t="n">
-        <v>63056.66666666666</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>62900</v>
-      </c>
-      <c r="C265" t="n">
-        <v>62750</v>
-      </c>
-      <c r="D265" t="n">
-        <v>62900</v>
-      </c>
-      <c r="E265" t="n">
-        <v>62750</v>
-      </c>
-      <c r="F265" t="n">
-        <v>0.0232</v>
-      </c>
-      <c r="G265" t="n">
-        <v>63050.83333333334</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>62900</v>
-      </c>
-      <c r="C266" t="n">
-        <v>62900</v>
-      </c>
-      <c r="D266" t="n">
-        <v>62900</v>
-      </c>
-      <c r="E266" t="n">
-        <v>62900</v>
-      </c>
-      <c r="F266" t="n">
-        <v>99.989</v>
-      </c>
-      <c r="G266" t="n">
-        <v>63045.83333333334</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>62950</v>
-      </c>
-      <c r="C267" t="n">
-        <v>63500</v>
-      </c>
-      <c r="D267" t="n">
-        <v>63500</v>
-      </c>
-      <c r="E267" t="n">
-        <v>62950</v>
-      </c>
-      <c r="F267" t="n">
-        <v>570.7612</v>
-      </c>
-      <c r="G267" t="n">
-        <v>63050.83333333334</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>63500</v>
-      </c>
-      <c r="C268" t="n">
-        <v>63500</v>
-      </c>
-      <c r="D268" t="n">
-        <v>63800</v>
-      </c>
-      <c r="E268" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F268" t="n">
-        <v>371.1481</v>
-      </c>
-      <c r="G268" t="n">
-        <v>63055.83333333334</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>63550</v>
-      </c>
-      <c r="C269" t="n">
-        <v>63400</v>
-      </c>
-      <c r="D269" t="n">
-        <v>63550</v>
-      </c>
-      <c r="E269" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F269" t="n">
-        <v>146.3292</v>
-      </c>
-      <c r="G269" t="n">
-        <v>63059.16666666666</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>63600</v>
-      </c>
-      <c r="C270" t="n">
-        <v>63600</v>
-      </c>
-      <c r="D270" t="n">
-        <v>63600</v>
-      </c>
-      <c r="E270" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F270" t="n">
-        <v>47.8203</v>
-      </c>
-      <c r="G270" t="n">
-        <v>63065.83333333334</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>63550</v>
-      </c>
-      <c r="C271" t="n">
-        <v>63600</v>
-      </c>
-      <c r="D271" t="n">
-        <v>63600</v>
-      </c>
-      <c r="E271" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F271" t="n">
-        <v>19.8915</v>
-      </c>
-      <c r="G271" t="n">
-        <v>63072.5</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>63500</v>
-      </c>
-      <c r="C272" t="n">
-        <v>63500</v>
-      </c>
-      <c r="D272" t="n">
-        <v>63500</v>
-      </c>
-      <c r="E272" t="n">
-        <v>63500</v>
-      </c>
-      <c r="F272" t="n">
-        <v>1.0004</v>
-      </c>
-      <c r="G272" t="n">
-        <v>63077.5</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>63350</v>
-      </c>
-      <c r="C273" t="n">
-        <v>63350</v>
-      </c>
-      <c r="D273" t="n">
-        <v>63350</v>
-      </c>
-      <c r="E273" t="n">
-        <v>63350</v>
-      </c>
-      <c r="F273" t="n">
-        <v>3.9084</v>
-      </c>
-      <c r="G273" t="n">
-        <v>63078.33333333334</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>63350</v>
-      </c>
-      <c r="C274" t="n">
-        <v>63300</v>
-      </c>
-      <c r="D274" t="n">
-        <v>63350</v>
-      </c>
-      <c r="E274" t="n">
-        <v>63300</v>
-      </c>
-      <c r="F274" t="n">
-        <v>26.8871</v>
-      </c>
-      <c r="G274" t="n">
-        <v>63078.33333333334</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>63500</v>
-      </c>
-      <c r="C275" t="n">
-        <v>63500</v>
-      </c>
-      <c r="D275" t="n">
-        <v>63500</v>
-      </c>
-      <c r="E275" t="n">
-        <v>63500</v>
-      </c>
-      <c r="F275" t="n">
-        <v>3.606</v>
-      </c>
-      <c r="G275" t="n">
-        <v>63083.33333333334</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>63550</v>
-      </c>
-      <c r="C276" t="n">
-        <v>63600</v>
-      </c>
-      <c r="D276" t="n">
-        <v>63600</v>
-      </c>
-      <c r="E276" t="n">
-        <v>63550</v>
-      </c>
-      <c r="F276" t="n">
-        <v>120.9382</v>
-      </c>
-      <c r="G276" t="n">
-        <v>63088.33333333334</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>63600</v>
-      </c>
-      <c r="C277" t="n">
-        <v>63600</v>
-      </c>
-      <c r="D277" t="n">
-        <v>63600</v>
-      </c>
-      <c r="E277" t="n">
-        <v>63600</v>
-      </c>
-      <c r="F277" t="n">
-        <v>14.845</v>
-      </c>
-      <c r="G277" t="n">
-        <v>63092.5</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>63550</v>
-      </c>
-      <c r="C278" t="n">
-        <v>63550</v>
-      </c>
-      <c r="D278" t="n">
-        <v>63550</v>
-      </c>
-      <c r="E278" t="n">
-        <v>63550</v>
-      </c>
-      <c r="F278" t="n">
-        <v>14.5971</v>
-      </c>
-      <c r="G278" t="n">
-        <v>63098.33333333334</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>63500</v>
-      </c>
-      <c r="C279" t="n">
-        <v>63500</v>
-      </c>
-      <c r="D279" t="n">
-        <v>63500</v>
-      </c>
-      <c r="E279" t="n">
-        <v>63500</v>
-      </c>
-      <c r="F279" t="n">
-        <v>10.4025</v>
-      </c>
-      <c r="G279" t="n">
-        <v>63103.33333333334</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>63500</v>
-      </c>
-      <c r="C280" t="n">
-        <v>63500</v>
-      </c>
-      <c r="D280" t="n">
-        <v>63500</v>
-      </c>
-      <c r="E280" t="n">
-        <v>63500</v>
-      </c>
-      <c r="F280" t="n">
-        <v>0.2061</v>
-      </c>
-      <c r="G280" t="n">
-        <v>63105.83333333334</v>
-      </c>
-      <c r="H280" t="n">
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
